--- a/public/record/ToCustomer_7869.xlsx
+++ b/public/record/ToCustomer_7869.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,25 +25,28 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Test Name</t>
+    <t>Queen Mary Priority Repairs - Lifeboats Removal</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/18/2022</t>
+    <t>08/19/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>???</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
   </si>
   <si>
     <t>TASK ORDER NO.</t>
+  </si>
+  <si>
+    <t>30J0052.00</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -154,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -660,6 +663,35 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -667,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -778,29 +810,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,31 +870,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1226,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
@@ -1281,7 +1352,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>999999</v>
+        <v>6372</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1291,31 +1362,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1324,10 +1395,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1393,195 +1464,165 @@
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>17</v>
+      <c r="A15" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="47">
-        <f>SUM(C7:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="47">
-        <f>SUM(D7:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="C15" s="48">
+        <f>=SUM(C7:C14)</f>
+      </c>
+      <c r="D15" s="48">
+        <f>=SUM(D7:D14)</f>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="55" t="s">
         <v>23</v>
       </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="64"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="1"/>
+    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="64"/>
+      <c r="A21" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="64"/>
+      <c r="A22" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="79"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="80"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A31" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1615,10 +1656,10 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7869.xlsx
+++ b/public/record/ToCustomer_7869.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,76 +25,79 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Queen Mary Priority Repairs - Lifeboats Removal</t>
+    <t>Repair HVAC Interior B10210</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/19/2022</t>
+    <t>08/24/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
+    <t>RKMF 17-0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT ID </t>
+  </si>
+  <si>
+    <t>TASK ORDER NO.</t>
+  </si>
+  <si>
+    <t>FA486118FA140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCUMENTED BY </t>
+  </si>
+  <si>
+    <t>Han, Sang Hyun</t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION </t>
+  </si>
+  <si>
+    <t>MANPOWER</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>NO. OF SUPER</t>
+  </si>
+  <si>
+    <t>NO. OF WORKERS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>INSPECTIONS</t>
+  </si>
+  <si>
+    <t>Name of Inspector</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">PROJECT ID </t>
-  </si>
-  <si>
-    <t>TASK ORDER NO.</t>
-  </si>
-  <si>
-    <t>30J0052.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOCUMENTED BY </t>
-  </si>
-  <si>
-    <t>Han, Sang Hyun</t>
-  </si>
-  <si>
-    <t>CONTRACTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION </t>
-  </si>
-  <si>
-    <t>MANPOWER</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>NO. OF SUPER</t>
-  </si>
-  <si>
-    <t>NO. OF WORKERS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INSPECTIONS</t>
-  </si>
-  <si>
-    <t>Name of Inspector</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>NOTE</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>6372</v>
+        <v>5733</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1567,7 +1570,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7869.xlsx
+++ b/public/record/ToCustomer_7869.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Office Yard</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/24/2022</t>
+    <t>08/23/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,9 +46,6 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1355,7 +1349,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5733</v>
+        <v>1</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1365,31 +1359,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1398,10 +1392,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1497,7 +1491,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1509,21 +1503,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1558,7 +1552,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1570,7 +1564,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7869.xlsx
+++ b/public/record/ToCustomer_7869.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -31,7 +31,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>08/23/2022</t>
+    <t>04/24/2023</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>No on-site work</t>
   </si>
   <si>
     <t>INSPECTIONS</t>
@@ -1485,13 +1488,15 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1503,21 +1508,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1552,7 +1557,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
